--- a/AnalisisEstudiantes.xlsx
+++ b/AnalisisEstudiantes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2017-II\Repositorio de Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2017-II\Repositorio de Ejercicios\IS501-II2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19200" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="19200" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>Cuenta</t>
   </si>
@@ -240,6 +240,171 @@
   </si>
   <si>
     <t>NombreMunicipio</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Codigo Lugar</t>
+  </si>
+  <si>
+    <t>Nombre Lugar</t>
+  </si>
+  <si>
+    <t>Tipo Lugar</t>
+  </si>
+  <si>
+    <t>Codigo Lugar Padre</t>
+  </si>
+  <si>
+    <t>Salama</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Lugar</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Aldea</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Codigo Empleado</t>
+  </si>
+  <si>
+    <t>Nombre Empleado</t>
+  </si>
+  <si>
+    <t>Eduardo Gross</t>
+  </si>
+  <si>
+    <t>Oscar Hernandez</t>
+  </si>
+  <si>
+    <t>Profesor X</t>
+  </si>
+  <si>
+    <t>Codigo Empleado Superior</t>
+  </si>
+  <si>
+    <t>Monico Oyuela</t>
+  </si>
+  <si>
+    <t>Tia July</t>
+  </si>
+  <si>
+    <t>Ajax Irias</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tipo Empleado</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Empleado</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Vicerector</t>
+  </si>
+  <si>
+    <t>Decano</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Codigo Asignatura</t>
+  </si>
+  <si>
+    <t>Asignatura</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Programacion II</t>
+  </si>
+  <si>
+    <t>POO</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Estadistica</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Codigo Persona</t>
+  </si>
+  <si>
+    <t>Nombre Persona</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Codigo Alumno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose </t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Nombre Sucursal</t>
+  </si>
+  <si>
+    <t>Codigo Administrador</t>
+  </si>
+  <si>
+    <t>Nombre Administrador</t>
+  </si>
+  <si>
+    <t>La Colonia 1</t>
+  </si>
+  <si>
+    <t>La Colonia 2</t>
+  </si>
+  <si>
+    <t>La Colonia 3</t>
+  </si>
+  <si>
+    <t>Ing Mecanica</t>
+  </si>
+  <si>
+    <t>Carreras por Alumno</t>
   </si>
 </sst>
 </file>
@@ -299,11 +464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -619,649 +785,1268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>20171001234</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>44</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>123456</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>111111</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <v>41255</v>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
       <c r="N3" s="3">
         <v>41255</v>
       </c>
-      <c r="O3" s="1">
-        <v>2</v>
+      <c r="O3" s="3">
+        <v>41255</v>
       </c>
       <c r="P3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>20171001235</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1245</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>22222</v>
       </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
       <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>41255</v>
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
       <c r="N4" s="3">
         <v>41255</v>
       </c>
-      <c r="O4" s="1">
-        <v>2</v>
+      <c r="O4" s="3">
+        <v>41255</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>20171001236</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>4564</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>33333</v>
       </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
       <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>41255</v>
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>41255</v>
       </c>
-      <c r="O5" s="1">
-        <v>2</v>
+      <c r="O5" s="3">
+        <v>41255</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>20171001237</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
       <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>12313</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>4444</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3">
-        <v>41255</v>
+      <c r="M6" s="1">
+        <v>2</v>
       </c>
       <c r="N6" s="3">
         <v>41255</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
+      <c r="O6" s="3">
+        <v>41255</v>
       </c>
       <c r="P6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>20171001238</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
       <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>44</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>456</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>5555</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>41255</v>
+      <c r="M7" s="1">
+        <v>3</v>
       </c>
       <c r="N7" s="3">
         <v>41255</v>
       </c>
-      <c r="O7" s="1">
-        <v>2</v>
+      <c r="O7" s="3">
+        <v>41255</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="L11" t="s">
+      <c r="H11" s="1"/>
+      <c r="M11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="H12" s="1"/>
+      <c r="M12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="H13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L15" s="1">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="L24" s="1">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="L25" s="1">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="L26" s="1">
+      <c r="E26" s="1"/>
+      <c r="M26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L29" t="s">
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="1" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>60</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>76</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>77</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46" s="1">
+        <v>3</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <v>4</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M57" s="1">
+        <v>6</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>108</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L86" s="1">
+        <v>4</v>
+      </c>
+      <c r="M86" s="1">
+        <v>54654</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="1">
+        <v>5</v>
+      </c>
+      <c r="M87" s="1">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>4</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>5</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>12312312</v>
+      </c>
+      <c r="J97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1">
+        <v>123123123</v>
+      </c>
+      <c r="J98" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
+      <c r="I99" s="1">
+        <v>12312313</v>
+      </c>
+      <c r="J99" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J106" s="1">
+        <v>2</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AnalisisEstudiantes.xlsx
+++ b/AnalisisEstudiantes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="19200" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="19200" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>Cuenta</t>
   </si>
@@ -405,6 +405,48 @@
   </si>
   <si>
     <t>Carreras por Alumno</t>
+  </si>
+  <si>
+    <t>Promedio Global</t>
+  </si>
+  <si>
+    <t>Codigo Requisito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Estados Matricula</t>
+  </si>
+  <si>
+    <t>Codigo Estado</t>
+  </si>
+  <si>
+    <t>Nombre Estado</t>
+  </si>
+  <si>
+    <t>Matriculado</t>
+  </si>
+  <si>
+    <t>Lista Espera</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Codigo Seccion</t>
+  </si>
+  <si>
+    <t>Numero Lista</t>
+  </si>
+  <si>
+    <t>Secciones</t>
+  </si>
+  <si>
+    <t>Codigo Maestro</t>
+  </si>
+  <si>
+    <t>Cupos</t>
   </si>
 </sst>
 </file>
@@ -785,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +839,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -812,335 +854,317 @@
     <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>20171001234</v>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <v>123456</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J3" s="1">
+        <v>111111</v>
+      </c>
       <c r="K3" s="1">
-        <v>111111</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
+      <c r="M3" s="3">
+        <v>41255</v>
       </c>
       <c r="N3" s="3">
         <v>41255</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1245</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22222</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
         <v>41255</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20171001235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1245</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1">
-        <v>22222</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
       </c>
       <c r="N4" s="3">
         <v>41255</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4564</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>33333</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
         <v>41255</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20171001236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4564</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1">
-        <v>33333</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>41255</v>
       </c>
-      <c r="O5" s="3">
-        <v>41255</v>
+      <c r="O5" s="1">
+        <v>2</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>20171001237</v>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="1">
+        <v>23</v>
+      </c>
       <c r="E6" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
         <v>22</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <v>12313</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J6" s="1">
+        <v>4444</v>
+      </c>
       <c r="K6" s="1">
-        <v>4444</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>41255</v>
       </c>
       <c r="N6" s="3">
         <v>41255</v>
       </c>
-      <c r="O6" s="3">
-        <v>41255</v>
+      <c r="O6" s="1">
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>20171001238</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
       <c r="E7" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <v>456</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J7" s="1">
+        <v>5555</v>
+      </c>
       <c r="K7" s="1">
-        <v>5555</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>41255</v>
       </c>
       <c r="N7" s="3">
         <v>41255</v>
       </c>
-      <c r="O7" s="3">
-        <v>41255</v>
+      <c r="O7" s="1">
+        <v>2</v>
       </c>
       <c r="P7" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -1230,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M15" s="1">
         <v>3</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>15</v>
       </c>
@@ -1580,9 +1604,15 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -1718,6 +1748,9 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
       <c r="G46" s="1">
         <v>6</v>
       </c>
@@ -1737,12 +1770,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20171001234</v>
+      </c>
+      <c r="D48" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20171001235</v>
+      </c>
+      <c r="D49" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20171001236</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="M50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20171001237</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="M51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1750,7 +1830,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>20171001238</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="M52" s="1">
         <v>1</v>
       </c>
@@ -1758,7 +1843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M53" s="1">
         <v>2</v>
       </c>
@@ -1766,7 +1851,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M54" s="1">
         <v>3</v>
       </c>
@@ -1774,7 +1859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M55" s="1">
         <v>4</v>
       </c>
@@ -1782,7 +1867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G56" s="1" t="s">
         <v>100</v>
       </c>
@@ -1799,7 +1884,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
       <c r="G57" s="1">
         <v>1</v>
       </c>
@@ -1816,7 +1904,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G58" s="1">
         <v>2</v>
       </c>
@@ -1827,7 +1921,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G59" s="1">
         <v>3</v>
       </c>
@@ -1838,7 +1938,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G60" s="1">
         <v>4</v>
       </c>
@@ -1846,6 +1952,209 @@
         <v>106</v>
       </c>
       <c r="I60" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="84" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L84" t="s">
@@ -2042,11 +2351,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
